--- a/Data-Exploration/Week7-8/Final-Project/data/revenue_voice_equip_data.xlsx
+++ b/Data-Exploration/Week7-8/Final-Project/data/revenue_voice_equip_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\GitRepos\msdatascience\Data-Exploration\Week7-8\Final-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aamol\Repos\GithubRepos\msdatascience\msdatascience\Data-Exploration\Final-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BFAE696A-CE4D-4797-929D-3A16B4E08CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="revenue_voice_equip_data" sheetId="1" r:id="rId1"/>
@@ -19,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>voiceRevenue</t>
-  </si>
-  <si>
-    <t>equipmentRevenue</t>
-  </si>
-  <si>
-    <t>dataRevenue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bronze</t>
   </si>
@@ -45,23 +34,25 @@
     <t>Silver</t>
   </si>
   <si>
-    <t>Voice</t>
+    <t>Customer Segment</t>
   </si>
   <si>
-    <t>Equipment</t>
+    <t>Voice $</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>Equipment $</t>
+  </si>
+  <si>
+    <t>Data $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0,\K"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -125,7 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,32 +510,31 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -605,7 +595,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -628,108 +618,429 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>revenue_voice_equip_data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voice $</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>revenue_voice_equip_data!$A$10:$A$12</c:f>
+              <c:f>revenue_voice_equip_data!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Voice</c:v>
+                  <c:v>Platinum</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Equipment</c:v>
+                  <c:v>Gold</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Data</c:v>
+                  <c:v>Silver</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bronze</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>revenue_voice_equip_data!$B$10:$B$12</c:f>
+              <c:f>revenue_voice_equip_data!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0,\K</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1035413.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400840.9</c:v>
+                  <c:v>1811989.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1460618.65</c:v>
+                  <c:v>420014.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>274882.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8731-490C-BBE3-33026D8D7C2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>revenue_voice_equip_data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equipment $</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>revenue_voice_equip_data!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Platinum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gold</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silver</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bronze</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>revenue_voice_equip_data!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1400840.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338197.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310291.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301552.40000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8731-490C-BBE3-33026D8D7C2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>revenue_voice_equip_data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data $</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>revenue_voice_equip_data!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Platinum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gold</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silver</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bronze</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>revenue_voice_equip_data!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1460618.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256321.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204482.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8731-490C-BBE3-33026D8D7C2D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="376146152"/>
-        <c:axId val="376146544"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="589233432"/>
+        <c:axId val="589230808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376146152"/>
+        <c:axId val="589233432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -745,7 +1056,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -760,7 +1071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376146544"/>
+        <c:crossAx val="589230808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -768,44 +1079,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376146544"/>
+        <c:axId val="589230808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;$&quot;#,##0,\K" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="376146152"/>
+        <c:crossAx val="589233432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -817,13 +1101,54 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56353324584426945"/>
+          <c:y val="2.7777777777777776E-2"/>
+          <c:w val="0.42293350831146109"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -855,13 +1180,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -895,7 +1217,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -906,7 +1228,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -919,7 +1241,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -929,18 +1251,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -960,11 +1282,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -996,35 +1321,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1036,14 +1371,17 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,15 +1390,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1082,15 +1420,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1105,15 +1441,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1124,17 +1460,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1143,10 +1478,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1162,7 +1497,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1170,7 +1505,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1189,17 +1524,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1208,17 +1542,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1227,17 +1560,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1253,20 +1585,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1280,7 +1612,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1297,10 +1629,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1321,7 +1653,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1330,13 +1662,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1350,7 +1683,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1366,8 +1699,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1383,6 +1716,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1390,7 +1734,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1401,19 +1745,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9AB372-E19D-40C3-8166-5CECE350F1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1448,7 +1798,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1460,7 +1810,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1477,9 +1827,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1507,14 +1857,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1542,6 +1909,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1694,38 +2078,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1035413.45</v>
@@ -1737,9 +2120,9 @@
         <v>1460618.65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1811989.35</v>
@@ -1751,9 +2134,9 @@
         <v>256321.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>420014.45</v>
@@ -1765,9 +2148,9 @@
         <v>204482.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>274882.7</v>
@@ -1779,77 +2162,11 @@
         <v>188501</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1035413.45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1811989.35</v>
-      </c>
-      <c r="D10" s="2">
-        <v>420014.45</v>
-      </c>
-      <c r="E10" s="2">
-        <v>274882.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1400840.9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>338197.4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>310291.3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>301552.40000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1460618.65</v>
-      </c>
-      <c r="C12" s="2">
-        <v>256321.3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>204482.1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>188501</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>